--- a/data/spring-cloud-shop/shop-cart-client_structure.xlsx
+++ b/data/spring-cloud-shop/shop-cart-client_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="51">
   <si>
     <t>Class Name</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -812,7 +809,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -834,10 +831,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -853,34 +850,23 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s" s="0">
         <v>50</v>
       </c>
     </row>
